--- a/nmadb/479622.xlsx
+++ b/nmadb/479622.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -354,9 +354,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,14 +366,17 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -503,7 +502,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="10" bestFit="1" customWidth="1"/>
@@ -721,10 +719,10 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
@@ -757,7 +755,7 @@
       <c r="J2" s="14">
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -778,11 +776,11 @@
       <c r="G3" s="6">
         <v>42</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="14">
         <v>2</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -807,7 +805,7 @@
       <c r="J4" s="14">
         <v>3</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -832,7 +830,7 @@
       <c r="J5" s="14">
         <v>4</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -858,11 +856,11 @@
       <c r="G6" s="5">
         <v>138</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="16">
         <v>5</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -894,7 +892,7 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>2</v>
       </c>
       <c r="E8" s="20">
@@ -935,7 +933,7 @@
       <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>5</v>
       </c>
       <c r="E10" s="20">
@@ -977,7 +975,7 @@
       <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>5</v>
       </c>
       <c r="E12" s="20">
@@ -1101,7 +1099,7 @@
       <c r="C18" s="5">
         <v>8</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>5</v>
       </c>
       <c r="E18" s="20">
@@ -1242,7 +1240,7 @@
       <c r="C25" s="5">
         <v>11</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>5</v>
       </c>
       <c r="E25" s="20">
@@ -1323,7 +1321,7 @@
       <c r="C29" s="10">
         <v>13</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>5</v>
       </c>
       <c r="E29" s="20">
@@ -1368,12 +1366,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1385,12 +1383,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
